--- a/docs/sdi-entrega1-104-106.xlsx
+++ b/docs/sdi-entrega1-104-106.xlsx
@@ -1,36 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26230"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/delacal/OneDrive - Universidad de Oviedo/DOCENCIA/SDI/1819/prácticas_entrega/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\OneDrive\Escritorio\workspace Wallapop\sdi-entrega1-104-106\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D6A7D8-0BAD-4905-AEF3-E3B3FD6F77CB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pruebas" sheetId="1" r:id="rId1"/>
     <sheet name="Instrucciones" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="44">
   <si>
     <t>Puntuación (Para rellenar por el profesor)</t>
   </si>
@@ -217,11 +219,14 @@
       <t xml:space="preserve"> si así lo considera (sobre todo para los casos FAIL o SIN).</t>
     </r>
   </si>
+  <si>
+    <t>Como al final no añadimos el mensaje de dinero insuficiente, lo comprobamos mirando que el tipo de la oferta siguiese siendo normal.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -515,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -539,12 +544,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -554,6 +557,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -580,31 +596,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -884,114 +888,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49:G49"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84:G84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="7" max="7" width="39.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:8" ht="32" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23"/>
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:8" ht="31.5" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.5">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:8" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="35">
+      <c r="A4" s="23">
         <f>G31</f>
-        <v>11</v>
-      </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-    </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+    </row>
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.5">
+      <c r="A5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:8" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="35">
+      <c r="A6" s="23">
         <f>G44</f>
         <v>0</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-    </row>
-    <row r="7" spans="1:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+    </row>
+    <row r="7" spans="1:8" ht="26" x14ac:dyDescent="0.6">
+      <c r="A7" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-    </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="36">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A8" s="26">
         <f>A4-A6</f>
-        <v>11</v>
-      </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-    </row>
-    <row r="10" spans="1:8" thickBot="1" x14ac:dyDescent="0.4"/>
+        <v>0.5</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+    </row>
+    <row r="10" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="11" spans="1:8" ht="31.5" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23"/>
-    </row>
-    <row r="12" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21"/>
+    </row>
+    <row r="12" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
@@ -1015,7 +1019,7 @@
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -1028,7 +1032,7 @@
       </c>
       <c r="D13" s="1">
         <f>COUNTIFS($B$49:$B$96,$A13,$D$49:$D$96,"=SIN")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
         <f>COUNTIFS($B$49:$B$96,$A13,$D$49:$D$96,"FAIL")</f>
@@ -1036,14 +1040,14 @@
       </c>
       <c r="F13" s="1">
         <f>COUNTIFS($B$49:$B$96,$A13,$D$49:$D$96,"=SIN")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
         <f>MIN(C13,(D13/B13)*C13)</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -1056,7 +1060,7 @@
       </c>
       <c r="D14" s="1">
         <f t="shared" ref="D14:F30" si="1">COUNTIFS($B$49:$B$96,$A14,$D$49:$D$96,"=SIN")</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" ref="E14:E30" si="2">COUNTIFS($B$49:$B$96,$A14,$D$49:$D$96,"FAIL")</f>
@@ -1064,14 +1068,14 @@
       </c>
       <c r="F14" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" ref="G14:G30" si="3">MIN(C14,(D14/B14)*C14)</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>3</v>
       </c>
@@ -1084,7 +1088,7 @@
       </c>
       <c r="D15" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="2"/>
@@ -1092,14 +1096,14 @@
       </c>
       <c r="F15" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="3"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>4</v>
       </c>
@@ -1112,7 +1116,7 @@
       </c>
       <c r="D16" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="2"/>
@@ -1120,14 +1124,14 @@
       </c>
       <c r="F16" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="3"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>5</v>
       </c>
@@ -1140,7 +1144,7 @@
       </c>
       <c r="D17" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="2"/>
@@ -1148,14 +1152,14 @@
       </c>
       <c r="F17" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>6</v>
       </c>
@@ -1168,7 +1172,7 @@
       </c>
       <c r="D18" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="2"/>
@@ -1176,14 +1180,14 @@
       </c>
       <c r="F18" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>7</v>
       </c>
@@ -1196,7 +1200,7 @@
       </c>
       <c r="D19" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="2"/>
@@ -1204,14 +1208,14 @@
       </c>
       <c r="F19" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>8</v>
       </c>
@@ -1224,7 +1228,7 @@
       </c>
       <c r="D20" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="2"/>
@@ -1232,14 +1236,14 @@
       </c>
       <c r="F20" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>9</v>
       </c>
@@ -1252,7 +1256,7 @@
       </c>
       <c r="D21" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="2"/>
@@ -1260,14 +1264,14 @@
       </c>
       <c r="F21" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>10</v>
       </c>
@@ -1280,7 +1284,7 @@
       </c>
       <c r="D22" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="2"/>
@@ -1288,14 +1292,14 @@
       </c>
       <c r="F22" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>11</v>
       </c>
@@ -1308,7 +1312,7 @@
       </c>
       <c r="D23" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="2"/>
@@ -1316,14 +1320,14 @@
       </c>
       <c r="F23" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>12</v>
       </c>
@@ -1336,7 +1340,7 @@
       </c>
       <c r="D24" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="2"/>
@@ -1344,14 +1348,14 @@
       </c>
       <c r="F24" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>13</v>
       </c>
@@ -1364,7 +1368,7 @@
       </c>
       <c r="D25" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="2"/>
@@ -1372,14 +1376,14 @@
       </c>
       <c r="F25" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>14</v>
       </c>
@@ -1398,7 +1402,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>15</v>
       </c>
@@ -1411,7 +1415,7 @@
       </c>
       <c r="D27" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="2"/>
@@ -1419,14 +1423,14 @@
       </c>
       <c r="F27" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>16</v>
       </c>
@@ -1439,7 +1443,7 @@
       </c>
       <c r="D28" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="2"/>
@@ -1447,14 +1451,14 @@
       </c>
       <c r="F28" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>17</v>
       </c>
@@ -1467,7 +1471,7 @@
       </c>
       <c r="D29" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="2"/>
@@ -1475,14 +1479,14 @@
       </c>
       <c r="F29" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>18</v>
       </c>
@@ -1495,7 +1499,7 @@
       </c>
       <c r="D30" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="2"/>
@@ -1503,14 +1507,14 @@
       </c>
       <c r="F30" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1521,150 +1525,150 @@
       </c>
       <c r="G31" s="12">
         <f>SUM(G13:G30)</f>
-        <v>11</v>
+        <v>0.5</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="32" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="24" t="s">
+    <row r="32" spans="1:8" ht="31.5" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A32" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="26"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="29"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
       <c r="G33" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <v>1</v>
       </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <v>2</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
         <v>3</v>
       </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
         <v>4</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
         <v>5</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="6">
         <v>6</v>
       </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="6">
         <v>7</v>
       </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="6">
         <v>8</v>
       </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="6">
         <v>9</v>
       </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="8">
         <v>10</v>
       </c>
-      <c r="B43" s="32"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="26" x14ac:dyDescent="0.6">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
@@ -1681,7 +1685,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1690,7 +1694,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1699,18 +1703,18 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:8" ht="31" x14ac:dyDescent="0.35">
-      <c r="A47" s="27" t="s">
+    <row r="47" spans="1:8" ht="31" x14ac:dyDescent="0.7">
+      <c r="A47" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="29"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="32"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>22</v>
       </c>
@@ -1720,16 +1724,16 @@
       <c r="C48" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="38" t="s">
+      <c r="D48" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E48" s="39" t="s">
+      <c r="E48" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>1</v>
       </c>
@@ -1740,13 +1744,13 @@
         <v>25</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E49" s="18"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="E49" s="36"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>2</v>
       </c>
@@ -1757,13 +1761,13 @@
         <v>25</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E50" s="18"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="E50" s="36"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>3</v>
       </c>
@@ -1774,13 +1778,13 @@
         <v>25</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E51" s="18"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="E51" s="36"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>4</v>
       </c>
@@ -1791,591 +1795,593 @@
         <v>25</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E52" s="18"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="E52" s="36"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>5</v>
       </c>
-      <c r="B53" s="17">
+      <c r="B53" s="1">
         <v>2</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E53" s="18"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="E53" s="36"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>6</v>
       </c>
-      <c r="B54" s="17">
+      <c r="B54" s="1">
         <v>2</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E54" s="18"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="E54" s="36"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>7</v>
       </c>
-      <c r="B55" s="17">
+      <c r="B55" s="1">
         <v>2</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E55" s="18"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="E55" s="36"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>8</v>
       </c>
-      <c r="B56" s="17">
+      <c r="B56" s="1">
         <v>2</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E56" s="18"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="E56" s="36"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>9</v>
       </c>
-      <c r="B57" s="17">
+      <c r="B57" s="1">
         <v>2</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E57" s="18"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="E57" s="36"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="39"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>10</v>
       </c>
-      <c r="B58" s="17">
+      <c r="B58" s="1">
         <v>3</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E58" s="18"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="E58" s="36"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>11</v>
       </c>
-      <c r="B59" s="17">
+      <c r="B59" s="1">
         <v>3</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E59" s="18"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="E59" s="36"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="39"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>12</v>
       </c>
-      <c r="B60" s="17">
+      <c r="B60" s="1">
         <v>4</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E60" s="18"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="E60" s="36"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="39"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>13</v>
       </c>
-      <c r="B61" s="17">
+      <c r="B61" s="1">
         <v>5</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E61" s="18"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="E61" s="36"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>14</v>
       </c>
-      <c r="B62" s="17">
+      <c r="B62" s="1">
         <v>5</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E62" s="18"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="E62" s="36"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>15</v>
       </c>
-      <c r="B63" s="17">
+      <c r="B63" s="1">
         <v>5</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E63" s="18"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="E63" s="36"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="39"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>16</v>
       </c>
-      <c r="B64" s="17">
+      <c r="B64" s="1">
         <v>6</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E64" s="18"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="E64" s="36"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>17</v>
       </c>
-      <c r="B65" s="17">
+      <c r="B65" s="1">
         <v>6</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E65" s="18"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="E65" s="36"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>18</v>
       </c>
-      <c r="B66" s="17">
+      <c r="B66" s="1">
         <v>7</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E66" s="18"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="E66" s="36"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="39"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>19</v>
       </c>
-      <c r="B67" s="17">
+      <c r="B67" s="1">
         <v>8</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E67" s="18"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="E67" s="36"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>20</v>
       </c>
-      <c r="B68" s="17">
+      <c r="B68" s="1">
         <v>8</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E68" s="18"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="E68" s="36"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>21</v>
       </c>
-      <c r="B69" s="17">
+      <c r="B69" s="1">
         <v>9</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E69" s="18"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="E69" s="36"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="39"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>22</v>
       </c>
-      <c r="B70" s="17">
+      <c r="B70" s="1">
         <v>9</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E70" s="18"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="E70" s="36"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="39"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>23</v>
       </c>
-      <c r="B71" s="17">
+      <c r="B71" s="1">
         <v>10</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E71" s="18"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="E71" s="36"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="39"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>24</v>
       </c>
-      <c r="B72" s="17">
+      <c r="B72" s="1">
         <v>10</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E72" s="18"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="19"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="E72" s="36"/>
+      <c r="F72" s="39"/>
+      <c r="G72" s="39"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>25</v>
       </c>
-      <c r="B73" s="17">
+      <c r="B73" s="1">
         <v>10</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E73" s="18"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="E73" s="36"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="39"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>26</v>
       </c>
-      <c r="B74" s="17">
+      <c r="B74" s="1">
         <v>11</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E74" s="18"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="19"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="E74" s="36"/>
+      <c r="F74" s="39"/>
+      <c r="G74" s="39"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>27</v>
       </c>
-      <c r="B75" s="17">
+      <c r="B75" s="1">
         <v>12</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E75" s="18"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="E75" s="36"/>
+      <c r="F75" s="39"/>
+      <c r="G75" s="39"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>28</v>
       </c>
-      <c r="B76" s="17">
+      <c r="B76" s="1">
         <v>13</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E76" s="18"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="E76" s="36"/>
+      <c r="F76" s="39"/>
+      <c r="G76" s="39"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>29</v>
       </c>
-      <c r="B77" s="17">
+      <c r="B77" s="1">
         <v>13</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E77" s="18"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="19"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="E77" s="36"/>
+      <c r="F77" s="39"/>
+      <c r="G77" s="39"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>30</v>
       </c>
-      <c r="B78" s="17">
+      <c r="B78" s="1">
         <v>13</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E78" s="18"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="19"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="E78" s="36"/>
+      <c r="F78" s="39"/>
+      <c r="G78" s="39"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>31</v>
       </c>
-      <c r="B79" s="17">
+      <c r="B79" s="1">
         <v>15</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E79" s="18"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="19"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="E79" s="36"/>
+      <c r="F79" s="39"/>
+      <c r="G79" s="39"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>32</v>
       </c>
-      <c r="B80" s="17">
+      <c r="B80" s="1">
         <v>15</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E80" s="18"/>
-      <c r="F80" s="19"/>
-      <c r="G80" s="19"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="E80" s="36"/>
+      <c r="F80" s="39"/>
+      <c r="G80" s="39"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>33</v>
       </c>
-      <c r="B81" s="17">
+      <c r="B81" s="1">
         <v>16</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E81" s="18"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="19"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="E81" s="36"/>
+      <c r="F81" s="39"/>
+      <c r="G81" s="39"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>34</v>
       </c>
-      <c r="B82" s="17">
+      <c r="B82" s="1">
         <v>17</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E82" s="18"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="19"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="E82" s="36"/>
+      <c r="F82" s="39"/>
+      <c r="G82" s="39"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>35</v>
       </c>
-      <c r="B83" s="17">
+      <c r="B83" s="1">
         <v>17</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E83" s="18"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="19"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="E83" s="36"/>
+      <c r="F83" s="39"/>
+      <c r="G83" s="39"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>36</v>
       </c>
-      <c r="B84" s="17">
+      <c r="B84" s="1">
         <v>18</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E84" s="18"/>
-      <c r="F84" s="19"/>
-      <c r="G84" s="19"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="E84" s="36"/>
+      <c r="F84" s="39"/>
+      <c r="G84" s="39"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>37</v>
       </c>
-      <c r="B85" s="17">
+      <c r="B85" s="1">
         <v>18</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E85" s="18"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="19"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="E85" s="36"/>
+      <c r="F85" s="39"/>
+      <c r="G85" s="39"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>38</v>
       </c>
-      <c r="B86" s="17">
+      <c r="B86" s="1">
         <v>18</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E86" s="18"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="19"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="E86" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" s="39"/>
+      <c r="G86" s="39"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>39</v>
       </c>
@@ -2386,11 +2392,11 @@
       <c r="D87" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E87" s="18"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="19"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E87" s="36"/>
+      <c r="F87" s="39"/>
+      <c r="G87" s="39"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>40</v>
       </c>
@@ -2401,11 +2407,11 @@
       <c r="D88" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E88" s="18"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="19"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E88" s="36"/>
+      <c r="F88" s="39"/>
+      <c r="G88" s="39"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>41</v>
       </c>
@@ -2416,11 +2422,11 @@
       <c r="D89" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E89" s="18"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="19"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E89" s="36"/>
+      <c r="F89" s="39"/>
+      <c r="G89" s="39"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>42</v>
       </c>
@@ -2431,11 +2437,11 @@
       <c r="D90" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E90" s="18"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="19"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E90" s="36"/>
+      <c r="F90" s="39"/>
+      <c r="G90" s="39"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>43</v>
       </c>
@@ -2446,11 +2452,11 @@
       <c r="D91" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E91" s="18"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="19"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E91" s="36"/>
+      <c r="F91" s="39"/>
+      <c r="G91" s="39"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>44</v>
       </c>
@@ -2461,11 +2467,11 @@
       <c r="D92" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E92" s="18"/>
-      <c r="F92" s="19"/>
-      <c r="G92" s="19"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E92" s="36"/>
+      <c r="F92" s="39"/>
+      <c r="G92" s="39"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>45</v>
       </c>
@@ -2476,11 +2482,11 @@
       <c r="D93" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E93" s="18"/>
-      <c r="F93" s="19"/>
-      <c r="G93" s="19"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E93" s="36"/>
+      <c r="F93" s="39"/>
+      <c r="G93" s="39"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>46</v>
       </c>
@@ -2491,11 +2497,11 @@
       <c r="D94" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E94" s="18"/>
-      <c r="F94" s="19"/>
-      <c r="G94" s="19"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E94" s="36"/>
+      <c r="F94" s="39"/>
+      <c r="G94" s="39"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>47</v>
       </c>
@@ -2506,12 +2512,12 @@
       <c r="D95" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E95" s="18"/>
-      <c r="F95" s="19"/>
-      <c r="G95" s="19"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="17">
+      <c r="E95" s="36"/>
+      <c r="F95" s="39"/>
+      <c r="G95" s="39"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
         <v>48</v>
       </c>
       <c r="B96" s="1"/>
@@ -2521,18 +2527,60 @@
       <c r="D96" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E96" s="18"/>
-      <c r="F96" s="19"/>
-      <c r="G96" s="19"/>
+      <c r="E96" s="36"/>
+      <c r="F96" s="39"/>
+      <c r="G96" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E59:G59"/>
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A11:G11"/>
@@ -2549,66 +2597,24 @@
     <mergeCell ref="B41:F41"/>
     <mergeCell ref="B42:F42"/>
     <mergeCell ref="B43:F43"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Instrucciones!$A$7:$A$9</xm:f>
           </x14:formula1>
           <xm:sqref>C49:C96</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Instrucciones!$A$13:$A$15</xm:f>
           </x14:formula1>
@@ -2621,36 +2627,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
@@ -2658,7 +2664,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
@@ -2666,7 +2672,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
@@ -2674,7 +2680,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
@@ -2682,8 +2688,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>35</v>
       </c>
@@ -2691,7 +2697,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>26</v>
       </c>
@@ -2699,7 +2705,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>37</v>
       </c>
@@ -2707,7 +2713,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8" t="s">
         <v>39</v>
       </c>
